--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4427E27-F960-4791-8402-6E78D2620E9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D39A3-E344-4301-8F9F-AD0A44204C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>n</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ro 
 спирт</t>
@@ -277,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,9 +301,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -338,7 +332,39 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -393,19 +419,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -440,22 +453,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
@@ -552,22 +549,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -731,7 +712,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3944155058826376E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1585,10 +1566,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A4:M13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
@@ -1602,45 +1582,46 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="26">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="24">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="24">
+    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан"/>
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="1">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</calculatedColumnFormula>
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="22">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
-смесь]]*(1-L4)</calculatedColumnFormula>
+смесь]]*(1-M4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="21">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
-смесь]]*L4</calculatedColumnFormula>
+смесь]]*M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="21">
-      <calculatedColumnFormula>F4+0.025</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="20">
+      <calculatedColumnFormula>G4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="19">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="18">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="0">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</calculatedColumnFormula>
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="16">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
@@ -1655,21 +1636,18 @@
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8266A390-EFAC-4158-AC90-FDA85A1FB976}" name="n" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:C2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B1:C2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B1:B2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6C94ACB-02C3-4208-A818-A864BEAEDA5B}" name="m_x000a_стакан" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
+  <tableColumns count="1">
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1683,7 +1661,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -1696,7 +1674,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1709,29 +1687,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="9">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="6">
-      <calculatedColumnFormula>Эксперимент!L5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="8">
       <calculatedColumnFormula>Эксперимент!M5</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="7">
+      <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="6">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="5">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="4">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="3">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="2">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2038,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,85 +2029,82 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
-        <v>25.568200000000001</v>
-      </c>
-      <c r="C2" s="2">
         <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
+        <v>25.568200000000001</v>
+      </c>
+      <c r="C5" s="15">
         <v>34.882399999999997</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
         <v>9.314199999999996</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>9.3141999999999996</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
@@ -2137,23 +2112,23 @@
 спирт ]])</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J5" s="15">
         <v>34.882399999999997</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
         <v>9.314199999999996</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2161,131 +2136,136 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L5" s="19">
+      <c r="M5" s="18">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
         <v>0</v>
       </c>
-      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <f t="shared" ref="A6:A13" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="7">
+      <c r="B6">
+        <v>26.550599999999999</v>
+      </c>
+      <c r="C6" s="16">
+        <v>35.750999999999998</v>
+      </c>
+      <c r="D6" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D6" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>9.2003999999999984</v>
+      </c>
+      <c r="E6" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L5)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E6" s="5">
+смесь]]*(1-M5)</f>
+        <v>9.2003999999999984</v>
+      </c>
+      <c r="F6" s="5">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L5</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F13" si="1">F5+0.025</f>
+смесь]]*M5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G13" si="1">G5+0.025</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-0.65559487179487186</v>
-      </c>
-      <c r="H6" s="6">
+        <v>0.23590769230769229</v>
+      </c>
+      <c r="I6" s="6">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-762.31961836613004</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="7">
+        <v>274.31127012522359</v>
+      </c>
+      <c r="J6" s="16">
+        <v>35.976700000000001</v>
+      </c>
+      <c r="K6" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K6" s="3">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>9.4261000000000017</v>
+      </c>
+      <c r="L6" s="3">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
+        <v>0.22570000000000334</v>
+      </c>
+      <c r="M6" s="19">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="14"/>
+        <v>2.3944155058826376E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="7">
+      <c r="C7" s="16"/>
+      <c r="D7" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D7" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L6)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E7" s="5">
+смесь]]*(1-M6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L6</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+смесь]]*M6</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-1.3456947368421053</v>
-      </c>
-      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-1564.7613219094249</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K7" s="3">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2293,65 +2273,64 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L7" s="20">
+      <c r="M7" s="19" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7">
+      <c r="C8" s="16"/>
+      <c r="D8" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D8" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L7)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E8" s="5">
+смесь]]*(1-M7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="5" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
+смесь]]*M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-2.0730972972972976</v>
-      </c>
-      <c r="H8" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="6" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-2410.5782526712765</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K8" s="3">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2359,65 +2338,65 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L8" s="20">
+      <c r="M8" s="19" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="10">
+      <c r="B9"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D9" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L8)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E9" s="11">
+смесь]]*(1-M8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L8</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+смесь]]*M8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H9" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-2.8409111111111112</v>
-      </c>
-      <c r="H9" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="13" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-3303.3850129198968</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K9" s="12">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2425,65 +2404,65 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L9" s="21">
+      <c r="M9" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="10">
+      <c r="B10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D10" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L9)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E10" s="11">
+смесь]]*(1-M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L9</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+смесь]]*M9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="G10" s="12">
+      <c r="H10" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-3.6526000000000001</v>
-      </c>
-      <c r="H10" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="13" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-4247.2093023255811</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K10" s="12">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2491,65 +2470,65 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L10" s="21">
+      <c r="M10" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="10">
+      <c r="B11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D11" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L10)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E11" s="11">
+смесь]]*(1-M10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L10</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
+смесь]]*M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="G11" s="12">
+      <c r="H11" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-4.5120352941176476</v>
-      </c>
-      <c r="H11" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="13" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-5246.5526675786605</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K11" s="12">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2557,65 +2536,65 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="M11" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="10">
+      <c r="B12"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D12" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L11)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E12" s="11">
+смесь]]*(1-M11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+смесь]]*M11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="H12" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-5.4235575757575756</v>
-      </c>
-      <c r="H12" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="13" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-6306.4622973925298</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K12" s="12">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2623,65 +2602,65 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L12" s="21">
+      <c r="M12" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="10">
+      <c r="B13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="D13" s="4">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-L12)</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="E13" s="11">
+смесь]]*(1-M12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*L12</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
+смесь]]*M12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="G13" s="12">
+      <c r="H13" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>-6.3920500000000002</v>
-      </c>
-      <c r="H13" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="13" t="e">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>-7432.6162790697672</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
-стакан]]-Таблица2[m
-стакан]</f>
-        <v>-25.568200000000001</v>
-      </c>
-      <c r="K13" s="12">
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2689,14 +2668,13 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13" s="21" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2831,9 +2809,10 @@
     <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2855,20 +2834,20 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>1.3806490000000001E-23</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <f>130*0.000000001</f>
         <v>1.3E-7</v>
       </c>
@@ -2879,364 +2858,364 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <f>Эксперимент!A5</f>
         <v>1</v>
       </c>
-      <c r="B4" s="26">
-        <f>Эксперимент!L5</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="25">
         <f>Эксперимент!M5</f>
         <v>0</v>
+      </c>
+      <c r="C4" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D4">
         <v>24.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F4">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>297.64999999999998</v>
       </c>
-      <c r="G4" s="23" t="e">
+      <c r="G4" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4">
+        <v>#REF!</v>
+      </c>
+      <c r="I4" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <f>Эксперимент!A6</f>
         <v>2</v>
       </c>
-      <c r="B5" s="26">
-        <f>Эксперимент!L6</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="B5" s="25">
         <f>Эксперимент!M6</f>
-        <v>0</v>
+        <v>2.3944155058826376E-2</v>
+      </c>
+      <c r="C5" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D5">
         <v>24.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F5">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>297.34999999999997</v>
       </c>
-      <c r="G5" s="23" t="e">
+      <c r="G5" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5">
+        <v>#REF!</v>
+      </c>
+      <c r="I5" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <f>Эксперимент!A7</f>
         <v>3</v>
       </c>
-      <c r="B6" s="26">
-        <f>Эксперимент!L7</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="25" t="e">
         <f>Эксперимент!M7</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D6">
         <v>23.9</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F6">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>297.04999999999995</v>
       </c>
-      <c r="G6" s="23" t="e">
+      <c r="G6" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6">
+        <v>#REF!</v>
+      </c>
+      <c r="I6" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <f>Эксперимент!A8</f>
         <v>4</v>
       </c>
-      <c r="B7" s="26">
-        <f>Эксперимент!L8</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="25" t="e">
         <f>Эксперимент!M8</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D7">
         <v>23.4</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F7">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>296.54999999999995</v>
       </c>
-      <c r="G7" s="23" t="e">
+      <c r="G7" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <f>Эксперимент!A9</f>
         <v>5</v>
       </c>
-      <c r="B8" s="26">
-        <f>Эксперимент!L9</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="25" t="e">
         <f>Эксперимент!M9</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D8">
         <v>22.9</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F8">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>296.04999999999995</v>
       </c>
-      <c r="G8" s="23" t="e">
+      <c r="G8" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8">
+        <v>#REF!</v>
+      </c>
+      <c r="I8" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <f>Эксперимент!A10</f>
         <v>6</v>
       </c>
-      <c r="B9" s="26">
-        <f>Эксперимент!L10</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="25" t="e">
         <f>Эксперимент!M10</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D9">
         <v>22.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F9">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>296.04999999999995</v>
       </c>
-      <c r="G9" s="23" t="e">
+      <c r="G9" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9">
+        <v>#REF!</v>
+      </c>
+      <c r="I9" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <f>Эксперимент!A11</f>
         <v>7</v>
       </c>
-      <c r="B10" s="26">
-        <f>Эксперимент!L11</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="25" t="e">
         <f>Эксперимент!M11</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D10">
         <v>23.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F10">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>296.64999999999998</v>
       </c>
-      <c r="G10" s="23" t="e">
+      <c r="G10" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10">
+        <v>#REF!</v>
+      </c>
+      <c r="I10" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <f>Эксперимент!A12</f>
         <v>8</v>
       </c>
-      <c r="B11" s="26">
-        <f>Эксперимент!L12</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B11" s="25" t="e">
         <f>Эксперимент!M12</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D11">
         <v>23.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F11">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>296.25</v>
       </c>
-      <c r="G11" s="23" t="e">
+      <c r="G11" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11">
+        <v>#REF!</v>
+      </c>
+      <c r="I11" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <f>Эксперимент!A13</f>
         <v>9</v>
       </c>
-      <c r="B12" s="26">
-        <f>Эксперимент!L13</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B12" s="25" t="e">
         <f>Эксперимент!M13</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="23" t="e">
+        <f>Эксперимент!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D12">
         <v>21.8</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="F12">
         <f>Таблица4[[#This Row],[T С]]+273.15</f>
         <v>294.95</v>
       </c>
-      <c r="G12" s="23" t="e">
+      <c r="G12" s="22" t="e">
         <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="23" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="22" t="e">
         <f>Таблица4[[#This Row],[D м2/с]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12">
+        <v>#REF!</v>
+      </c>
+      <c r="I12" t="e">
         <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D39A3-E344-4301-8F9F-AD0A44204C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D67B1-7B36-4844-8DBE-BD3D62038A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -334,38 +334,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -453,6 +421,22 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
@@ -549,6 +533,22 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1587,50 +1587,50 @@
     </tableColumn>
     <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан"/>
     <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="22">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="21">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*(1-M4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="20">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="19">
       <calculatedColumnFormula>G4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="18">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="17">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="15">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="16">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="14">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="13">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
@@ -1642,12 +1642,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B1:B2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1661,7 +1661,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1687,29 +1687,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="6">
       <calculatedColumnFormula>Эксперимент!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="5">
       <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="4">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="2">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="1">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="0">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D67B1-7B36-4844-8DBE-BD3D62038A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD417A-FE3A-45C0-B514-AC62A1F679EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ro 
 спирт</t>
@@ -118,6 +118,25 @@
   <si>
     <t>D0 см2/сут
 (просто)</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>m2
+смесь
+стакан</t>
+  </si>
+  <si>
+    <t>m2
+смеси</t>
+  </si>
+  <si>
+    <t>m+
+ОКМ</t>
+  </si>
+  <si>
+    <t>добавка ОКМ</t>
   </si>
 </sst>
 </file>
@@ -186,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -270,11 +295,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,11 +362,80 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -385,43 +488,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -715,10 +781,10 @@
                   <c:v>2.3944155058826376E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1915807405558006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.9824267685908662E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1566,9 +1632,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A4:M13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:Q13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A4:Q13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
@@ -1580,74 +1647,95 @@
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="24">
+  <tableColumns count="17">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="28">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="26">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="25">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
-смесь]]*(1-M4)</calculatedColumnFormula>
+смесь]]*(1-P4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="24">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
-смесь]]*M4</calculatedColumnFormula>
+смесь]]*P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="23">
       <calculatedColumnFormula>G4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="22">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="21">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="19">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="2">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="13">
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="0">
+      <calculatedColumnFormula>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="1">
+      <calculatedColumnFormula>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="5">
+      <calculatedColumnFormula>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="4">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Столбец1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B1:B2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1661,7 +1749,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -1674,7 +1762,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1687,29 +1775,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="13">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="6">
-      <calculatedColumnFormula>Эксперимент!M5</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="12">
+      <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="11">
       <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="10">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="9">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="8">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="7">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="6">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2014,30 +2102,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>0.86</v>
       </c>
+      <c r="M2" s="28">
+        <v>35.976700000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2075,10 +2166,22 @@
         <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2136,15 +2239,37 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="32">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>34.882399999999997</v>
+      </c>
+      <c r="N5" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>9.314199999999996</v>
+      </c>
+      <c r="O5" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>0</v>
       </c>
+      <c r="Q5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <f t="shared" ref="A6:A13" si="0">A5+1</f>
         <v>2</v>
@@ -2164,12 +2289,12 @@
       </c>
       <c r="E6" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M5)</f>
+смесь]]*(1-P5)</f>
         <v>9.2003999999999984</v>
       </c>
       <c r="F6" s="5">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M5</f>
+смесь]]*P5</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
@@ -2208,36 +2333,63 @@
 стакан]]</f>
         <v>0.22570000000000334</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="32">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>35.976700000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>9.4261000000000017</v>
+      </c>
+      <c r="O6" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>2.3944155058826376E-2</v>
       </c>
+      <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="B7">
+        <v>26.550599999999999</v>
+      </c>
+      <c r="C7" s="16">
+        <v>35.178199999999997</v>
+      </c>
       <c r="D7" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>8.6275999999999975</v>
       </c>
       <c r="E7" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M6)</f>
-        <v>0</v>
+смесь]]*(1-P6)</f>
+        <v>8.421019407814466</v>
       </c>
       <c r="F7" s="5">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M6</f>
-        <v>0</v>
+смесь]]*P6</f>
+        <v>0.20658059218553038</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
@@ -2249,21 +2401,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.23663095559417843</v>
       </c>
       <c r="I7" s="6">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="16"/>
+        <v>275.15227394671911</v>
+      </c>
+      <c r="J7" s="16">
+        <v>35.178199999999997</v>
+      </c>
       <c r="K7" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>8.6275999999999975</v>
       </c>
       <c r="L7" s="3">
         <f>Таблица1[[#This Row],[m1 
@@ -2273,62 +2427,89 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M7" s="19" t="e">
+      <c r="M7" s="33">
+        <v>35.976700000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>9.4261000000000017</v>
+      </c>
+      <c r="O7" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0.79850000000000421</v>
+      </c>
+      <c r="P7" s="19">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>2.1915807405558006E-2</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="B8">
+        <v>26.550599999999999</v>
+      </c>
+      <c r="C8" s="27">
+        <v>44.033299999999997</v>
+      </c>
       <c r="D8" s="7">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="e">
+        <v>17.482699999999998</v>
+      </c>
+      <c r="E8" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="5" t="e">
+смесь]]*(1-P7)</f>
+        <v>17.099552513870851</v>
+      </c>
+      <c r="F8" s="5">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M7</f>
-        <v>#DIV/0!</v>
+смесь]]*P7</f>
+        <v>0.3831474861291489</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="H8" s="3" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="3">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="6" t="e">
+        <v>0.51682896196931682</v>
+      </c>
+      <c r="I8" s="6">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="16"/>
+        <v>600.96390926664742</v>
+      </c>
+      <c r="J8" s="16">
+        <v>44.546799999999998</v>
+      </c>
       <c r="K8" s="7">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>17.996199999999998</v>
       </c>
       <c r="L8" s="3">
         <f>Таблица1[[#This Row],[m1 
@@ -2336,17 +2517,39 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="19" t="e">
+        <v>0.51350000000000051</v>
+      </c>
+      <c r="M8" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>44.546799999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>17.996199999999998</v>
+      </c>
+      <c r="O8" s="3">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>4.9824267685908662E-2</v>
+      </c>
+      <c r="Q8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2360,33 +2563,33 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="11" t="e">
+смесь]]*(1-P8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M8</f>
-        <v>#DIV/0!</v>
+смесь]]*P8</f>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="12" t="e">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="H9" s="12">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="10">
@@ -2404,15 +2607,37 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M9" s="20" t="e">
+      <c r="M9" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q9" s="30"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2428,17 +2653,17 @@
       </c>
       <c r="E10" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M9)</f>
+смесь]]*(1-P9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M9</f>
+смесь]]*P9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
@@ -2470,15 +2695,37 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="e">
+      <c r="M10" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q10" s="30"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2494,17 +2741,17 @@
       </c>
       <c r="E11" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M10)</f>
+смесь]]*(1-P10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M10</f>
+смесь]]*P10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="H11" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
@@ -2536,15 +2783,37 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M11" s="20" t="e">
+      <c r="M11" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q11" s="30"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2560,17 +2829,17 @@
       </c>
       <c r="E12" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M11)</f>
+смесь]]*(1-P11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M11</f>
+смесь]]*P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H12" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
@@ -2602,15 +2871,37 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M12" s="20" t="e">
+      <c r="M12" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q12" s="30"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2626,17 +2917,17 @@
       </c>
       <c r="E13" s="4" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*(1-M12)</f>
+смесь]]*(1-P12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="11" t="e">
         <f>Таблица1[[#This Row],[m0
-смесь]]*M12</f>
+смесь]]*P12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>0.19999999999999998</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H13" s="12" t="e">
         <f>(Таблица1[[#This Row],[m0
@@ -2668,17 +2959,39 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M13" s="21" t="e">
+      <c r="M13" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="21" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
-спирта]])/Таблица1[[#This Row],[m1
+спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q13" s="30"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2891,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="25">
-        <f>Эксперимент!M5</f>
+        <f>Эксперимент!P5</f>
         <v>0</v>
       </c>
       <c r="C4" s="23" t="e">
@@ -2928,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="25">
-        <f>Эксперимент!M6</f>
+        <f>Эксперимент!P6</f>
         <v>2.3944155058826376E-2</v>
       </c>
       <c r="C5" s="23" t="e">
@@ -2964,9 +3277,9 @@
         <f>Эксперимент!A7</f>
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="e">
-        <f>Эксперимент!M7</f>
-        <v>#DIV/0!</v>
+      <c r="B6" s="25">
+        <f>Эксперимент!P7</f>
+        <v>2.1915807405558006E-2</v>
       </c>
       <c r="C6" s="23" t="e">
         <f>Эксперимент!#REF!</f>
@@ -3001,9 +3314,9 @@
         <f>Эксперимент!A8</f>
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="e">
-        <f>Эксперимент!M8</f>
-        <v>#DIV/0!</v>
+      <c r="B7" s="25">
+        <f>Эксперимент!P8</f>
+        <v>4.9824267685908662E-2</v>
       </c>
       <c r="C7" s="23" t="e">
         <f>Эксперимент!#REF!</f>
@@ -3039,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="e">
-        <f>Эксперимент!M9</f>
+        <f>Эксперимент!P9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="23" t="e">
@@ -3076,7 +3389,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="25" t="e">
-        <f>Эксперимент!M10</f>
+        <f>Эксперимент!P10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="23" t="e">
@@ -3113,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="25" t="e">
-        <f>Эксперимент!M11</f>
+        <f>Эксперимент!P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="23" t="e">
@@ -3150,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="e">
-        <f>Эксперимент!M12</f>
+        <f>Эксперимент!P12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="23" t="e">
@@ -3187,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="25" t="e">
-        <f>Эксперимент!M13</f>
+        <f>Эксперимент!P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C12" s="23" t="e">

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD417A-FE3A-45C0-B514-AC62A1F679EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A9294E-AED2-4A86-B965-5091714CF5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A9294E-AED2-4A86-B965-5091714CF5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1E702-5847-42B3-8D13-549FA9087687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -379,64 +379,6 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -488,6 +430,64 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -787,7 +787,7 @@
                   <c:v>4.9824267685908662E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.6005085117237983E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1692,50 +1692,50 @@
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="18">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="17">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="16">
       <calculatedColumnFormula>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="15">
       <calculatedColumnFormula>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="14">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Столбец1" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Столбец1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B1:B2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1749,7 +1749,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -1762,7 +1762,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1775,29 +1775,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="6">
       <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="5">
       <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="4">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="2">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="1">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="0">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2554,24 +2554,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="16"/>
+      <c r="B9">
+        <v>28.312799999999999</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43.848700000000001</v>
+      </c>
       <c r="D9" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.535900000000002</v>
       </c>
       <c r="E9" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P8)</f>
-        <v>0</v>
+        <v>14.761835159658494</v>
       </c>
       <c r="F9" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P8</f>
-        <v>0</v>
+        <v>0.77406484034150846</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
@@ -2583,21 +2587,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.42284071314431548</v>
       </c>
       <c r="I9" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="16"/>
+        <v>491.67524784222735</v>
+      </c>
+      <c r="J9" s="16">
+        <v>44.288899999999998</v>
+      </c>
       <c r="K9" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.976099999999999</v>
       </c>
       <c r="L9" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -2605,20 +2611,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.44019999999999726</v>
       </c>
       <c r="M9" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>44.288899999999998</v>
       </c>
       <c r="N9" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.976099999999999</v>
       </c>
       <c r="O9" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -2628,12 +2634,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P9" s="20" t="e">
+      <c r="P9" s="20">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>7.6005085117237983E-2</v>
       </c>
       <c r="Q9" s="30"/>
     </row>
@@ -2651,33 +2657,33 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="e">
+      <c r="E10" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H10" s="12" t="e">
+      <c r="H10" s="12">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="10">
@@ -3351,9 +3357,9 @@
         <f>Эксперимент!A9</f>
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="e">
+      <c r="B8" s="25">
         <f>Эксперимент!P9</f>
-        <v>#DIV/0!</v>
+        <v>7.6005085117237983E-2</v>
       </c>
       <c r="C8" s="23" t="e">
         <f>Эксперимент!#REF!</f>

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1E702-5847-42B3-8D13-549FA9087687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69F090-B540-4FE0-91E8-93AE57F43B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -790,7 +790,7 @@
                   <c:v>7.6005085117237983E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10071871677750344</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,24 +2648,28 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="16"/>
+      <c r="B10">
+        <v>28.312799999999999</v>
+      </c>
+      <c r="C10" s="16">
+        <v>43.315600000000003</v>
+      </c>
       <c r="D10" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.002800000000004</v>
       </c>
       <c r="E10" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P9)</f>
-        <v>0</v>
+        <v>13.862510909003106</v>
       </c>
       <c r="F10" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P9</f>
-        <v>0</v>
+        <v>1.1402890909968983</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
@@ -2677,21 +2681,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.39998989889233572</v>
       </c>
       <c r="I10" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="16"/>
+        <v>465.10453359573921</v>
+      </c>
+      <c r="J10" s="16">
+        <v>43.727899999999998</v>
+      </c>
       <c r="K10" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.415099999999999</v>
       </c>
       <c r="L10" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -2699,20 +2705,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.41229999999999478</v>
       </c>
       <c r="M10" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>43.727899999999998</v>
       </c>
       <c r="N10" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.415099999999999</v>
       </c>
       <c r="O10" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -2722,12 +2728,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P10" s="20" t="e">
+      <c r="P10" s="20">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>0.10071871677750344</v>
       </c>
       <c r="Q10" s="30"/>
     </row>
@@ -2745,33 +2751,33 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="e">
+      <c r="E11" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="H11" s="12" t="e">
+      <c r="H11" s="12">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="10">
@@ -3394,9 +3400,9 @@
         <f>Эксперимент!A10</f>
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="e">
+      <c r="B9" s="25">
         <f>Эксперимент!P10</f>
-        <v>#DIV/0!</v>
+        <v>0.10071871677750344</v>
       </c>
       <c r="C9" s="23" t="e">
         <f>Эксперимент!#REF!</f>

--- a/Эксперименты/множетвенный разные температуры.xlsx
+++ b/Эксперименты/множетвенный разные температуры.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69F090-B540-4FE0-91E8-93AE57F43B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA2FE3-50D6-45F6-8B52-FD037D495FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -232,7 +232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,7 +372,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,7 +808,7 @@
                   <c:v>0.10071871677750344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.12304530681084216</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2105,7 +2120,7 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2364,38 +2379,38 @@
       <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="34">
         <v>26.550599999999999</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="35">
         <v>35.178199999999997</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="36">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
         <v>8.6275999999999975</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="37">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P6)</f>
         <v>8.421019407814466</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="38">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P6</f>
         <v>0.20658059218553038</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="40">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
@@ -2403,23 +2418,23 @@
 спирт ]])</f>
         <v>0.23663095559417843</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="41">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
         <v>275.15227394671911</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="35">
         <v>35.178199999999997</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="36">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
         <v>8.6275999999999975</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="40">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
@@ -2427,17 +2442,17 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="42">
         <v>35.976700000000001</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="40">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
         <v>9.4261000000000017</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="40">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m1 
@@ -2445,14 +2460,14 @@
 стакан]]</f>
         <v>0.79850000000000421</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="43">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>2.1915807405558006E-2</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2742,24 +2757,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" s="16"/>
+      <c r="B11">
+        <v>28.312799999999999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43.065800000000003</v>
+      </c>
       <c r="D11" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>14.753000000000004</v>
       </c>
       <c r="E11" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P10)</f>
-        <v>0</v>
+        <v>13.267096771381494</v>
       </c>
       <c r="F11" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P10</f>
-        <v>0</v>
+        <v>1.4859032286185085</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
@@ -2771,21 +2790,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.4093963101502765</v>
       </c>
       <c r="I11" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="16"/>
+        <v>476.04222110497267</v>
+      </c>
+      <c r="J11" s="16">
+        <v>43.441400000000002</v>
+      </c>
       <c r="K11" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.128600000000002</v>
       </c>
       <c r="L11" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -2793,20 +2814,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.3755999999999986</v>
       </c>
       <c r="M11" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>43.441400000000002</v>
       </c>
       <c r="N11" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>15.128600000000002</v>
       </c>
       <c r="O11" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -2816,12 +2837,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P11" s="20" t="e">
+      <c r="P11" s="20">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>0.12304530681084216</v>
       </c>
       <c r="Q11" s="30"/>
     </row>
@@ -2839,33 +2860,33 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H12" s="12" t="e">
+      <c r="H12" s="12">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="10">
@@ -3437,9 +3458,9 @@
         <f>Эксперимент!A11</f>
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="e">
+      <c r="B10" s="25">
         <f>Эксперимент!P11</f>
-        <v>#DIV/0!</v>
+        <v>0.12304530681084216</v>
       </c>
       <c r="C10" s="23" t="e">
         <f>Эксперимент!#REF!</f>
